--- a/results/CNN Models/full_dataset/ResNet101/result_for_ResNet101.xlsx
+++ b/results/CNN Models/full_dataset/ResNet101/result_for_ResNet101.xlsx
@@ -462,16 +462,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9960629921259843</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9980276134122288</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3">
@@ -481,16 +481,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9528907922912205</v>
+        <v>0.958904109589041</v>
       </c>
       <c r="C3" t="n">
-        <v>0.869140625</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.9790209790209791</v>
       </c>
       <c r="E3" t="n">
-        <v>512</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6446280991735537</v>
+        <v>0.9358974358974359</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7839195979899497</v>
+        <v>0.9668874172185431</v>
       </c>
       <c r="E4" t="n">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -519,16 +519,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9956331877729258</v>
+        <v>0.9985422740524781</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9978118161925602</v>
+        <v>0.9992706053975201</v>
       </c>
       <c r="E5" t="n">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="6">
@@ -538,16 +538,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4090909090909091</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2307692307692308</v>
+        <v>0.6904761904761905</v>
       </c>
       <c r="D6" t="n">
-        <v>0.2950819672131147</v>
+        <v>0.8169014084507042</v>
       </c>
       <c r="E6" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7">
@@ -557,16 +557,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9436325678496869</v>
+        <v>0.9671457905544147</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9205702647657841</v>
+        <v>0.9874213836477987</v>
       </c>
       <c r="D7" t="n">
-        <v>0.931958762886598</v>
+        <v>0.9771784232365145</v>
       </c>
       <c r="E7" t="n">
-        <v>491</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8">
@@ -576,16 +576,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1458333333333333</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="D8" t="n">
-        <v>0.25</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="E8" t="n">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9">
@@ -595,16 +595,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9534883720930233</v>
+        <v>0.9318181818181818</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8723404255319149</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="D9" t="n">
         <v>0.9111111111111111</v>
       </c>
       <c r="E9" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10">
@@ -614,16 +614,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7314814814814815</v>
+        <v>0.945054945054945</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0.9885057471264368</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8449197860962567</v>
+        <v>0.9662921348314607</v>
       </c>
       <c r="E10" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
@@ -633,16 +633,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7214285714285714</v>
+        <v>0.8633879781420765</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8964497041420119</v>
+        <v>0.9376854599406528</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7994722955145118</v>
+        <v>0.89900426742532</v>
       </c>
       <c r="E11" t="n">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12">
@@ -652,16 +652,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9010317157050057</v>
+        <v>0.9609856262833676</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9010317157050057</v>
+        <v>0.9609856262833676</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9010317157050057</v>
+        <v>0.9609856262833676</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9010317157050057</v>
+        <v>0.9609856262833676</v>
       </c>
     </row>
     <row r="13">
@@ -671,16 +671,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.8223336973307356</v>
+        <v>0.9600750715108572</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7935103583542275</v>
+        <v>0.8912059795683833</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7721393859507241</v>
+        <v>0.9103901640809801</v>
       </c>
       <c r="E13" t="n">
-        <v>2617</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="14">
@@ -690,16 +690,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9097822310929329</v>
+        <v>0.9631671935171978</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9010317157050057</v>
+        <v>0.9609856262833676</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8920508265468586</v>
+        <v>0.9570920679753625</v>
       </c>
       <c r="E14" t="n">
-        <v>2617</v>
+        <v>2435</v>
       </c>
     </row>
   </sheetData>
